--- a/Rodillas.xlsx
+++ b/Rodillas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoFS\Documents\GitHub\Proyecto-Fisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B760BB5E-F141-4C88-92E3-6C2981962476}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0037781-FD51-432F-B092-F558D9D1A053}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1506,11 +1506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5600,7 +5600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5678,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>

--- a/Rodillas.xlsx
+++ b/Rodillas.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoFS\Documents\GitHub\Proyecto-Fisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franciscofernandezschlein/Documents/GitHub/Proyecto-Fisis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0037781-FD51-432F-B092-F558D9D1A053}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -919,7 +926,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,7 +1041,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,7 +1049,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1051,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1125,6 +1132,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1506,33 +1519,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>290</v>
       </c>
@@ -1582,12 +1595,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1632,12 +1645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1682,12 +1695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1732,12 +1745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>34</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1782,12 +1795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1832,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>56</v>
       </c>
@@ -1882,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
         <v>67</v>
       </c>
@@ -1932,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>78</v>
       </c>
@@ -1982,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>80</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="36">
         <v>2</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>3</v>
       </c>
@@ -2132,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>4</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>5</v>
       </c>
@@ -2232,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>7</v>
       </c>
@@ -2332,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>8</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>9</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>10</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="34">
         <v>11</v>
       </c>
@@ -2532,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>14</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>15</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>16</v>
       </c>
@@ -2732,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>17</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>18</v>
       </c>
@@ -2832,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
         <v>19</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>20</v>
       </c>
@@ -2932,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <v>21</v>
       </c>
@@ -2982,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>22</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>25</v>
       </c>
@@ -3132,8 +3145,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="41">
         <v>26</v>
       </c>
       <c r="B33" s="6">
@@ -3182,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>27</v>
       </c>
@@ -3232,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>28</v>
       </c>
@@ -3282,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>29</v>
       </c>
@@ -3332,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>30</v>
       </c>
@@ -3382,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>31</v>
       </c>
@@ -3432,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>32</v>
       </c>
@@ -3482,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>33</v>
       </c>
@@ -3532,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>35</v>
       </c>
@@ -3582,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>36</v>
       </c>
@@ -3632,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>37</v>
       </c>
@@ -3682,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>38</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>39</v>
       </c>
@@ -3782,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>40</v>
       </c>
@@ -3832,8 +3845,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="41">
         <v>41</v>
       </c>
       <c r="B47" s="12">
@@ -3882,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>42</v>
       </c>
@@ -3932,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>43</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>44</v>
       </c>
@@ -4032,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>46</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>47</v>
       </c>
@@ -4132,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>48</v>
       </c>
@@ -4182,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>49</v>
       </c>
@@ -4232,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>50</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>51</v>
       </c>
@@ -4332,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>52</v>
       </c>
@@ -4382,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>53</v>
       </c>
@@ -4432,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>54</v>
       </c>
@@ -4482,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>55</v>
       </c>
@@ -4532,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>57</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="29">
         <v>58</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="29">
         <v>59</v>
       </c>
@@ -4682,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="29">
         <v>60</v>
       </c>
@@ -4732,8 +4745,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="29">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="42">
         <v>61</v>
       </c>
       <c r="B65" s="8">
@@ -4782,8 +4795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="29">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="42">
         <v>62</v>
       </c>
       <c r="B66" s="8">
@@ -4832,8 +4845,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="29">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="42">
         <v>63</v>
       </c>
       <c r="B67" s="8">
@@ -4882,8 +4895,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="29">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="42">
         <v>64</v>
       </c>
       <c r="B68" s="8">
@@ -4932,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>65</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="29">
         <v>66</v>
       </c>
@@ -5032,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="39">
         <v>68</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="39">
         <v>69</v>
       </c>
@@ -5132,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <v>70</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="39">
         <v>71</v>
       </c>
@@ -5232,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="39">
         <v>72</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="39">
         <v>73</v>
       </c>
@@ -5332,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="39">
         <v>74</v>
       </c>
@@ -5382,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="39">
         <v>75</v>
       </c>
@@ -5432,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="39">
         <v>76</v>
       </c>
@@ -5482,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="27">
         <v>77</v>
       </c>
@@ -5532,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="27">
         <v>79</v>
       </c>
@@ -5582,13 +5595,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P82" s="20">
         <f>SUM(P2:P81)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P86">
         <f>P82/6</f>
         <v>9</v>
@@ -5600,30 +5613,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>284</v>
       </c>
@@ -5631,7 +5644,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>285</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>286</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>287</v>
       </c>
@@ -5655,7 +5668,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>288</v>
       </c>
@@ -5663,12 +5676,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C12" s="21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" s="7"/>
     </row>
   </sheetData>
@@ -5678,12 +5691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
 </worksheet>
